--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,31 +117,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
@@ -142,6 +155,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -156,70 +170,375 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.29"/>
-    <col customWidth="1" min="2" max="2" width="8.0"/>
-    <col customWidth="1" min="3" max="3" width="7.14"/>
-    <col customWidth="1" min="4" max="5" width="6.71"/>
-    <col customWidth="1" min="6" max="6" width="6.86"/>
-    <col customWidth="1" min="7" max="7" width="6.29"/>
-    <col customWidth="1" min="8" max="8" width="6.57"/>
-    <col customWidth="1" min="9" max="9" width="6.71"/>
-    <col customWidth="1" min="10" max="10" width="7.0"/>
-    <col customWidth="1" min="11" max="11" width="7.57"/>
-    <col customWidth="1" min="12" max="12" width="4.86"/>
-    <col customWidth="1" min="13" max="16" width="8.14"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" customWidth="1"/>
+    <col min="13" max="16" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -267,787 +586,787 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="5" t="str">
-        <f t="shared" ref="M2:M16" si="1">IF(C2,D2/C2,)</f>
-        <v>0.750</v>
-      </c>
-      <c r="N2" s="5" t="str">
-        <f t="shared" ref="N2:N16" si="2">IF(C2,((D2-G2-H2-I2)+(2*G2)+(3*H2)+(4*I2))/C2,)</f>
-        <v>1.250</v>
-      </c>
-      <c r="O2" s="5" t="str">
-        <f t="shared" ref="O2:O16" si="3">IF(B2,(D2+J2)/(C2+J2),)</f>
-        <v>0.750</v>
-      </c>
-      <c r="P2" s="5" t="str">
-        <f t="shared" ref="P2:P16" si="4">IF(N2,N2+O2,)</f>
-        <v>2.000</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="M2" s="5">
+        <f t="shared" ref="M2:M16" si="0">IF(C2,D2/C2,)</f>
+        <v>0.75</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ref="N2:N16" si="1">IF(C2,((D2-G2-H2-I2)+(2*G2)+(3*H2)+(4*I2))/C2,)</f>
+        <v>1.25</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" ref="O2:O16" si="2">IF(B2,(D2+J2)/(C2+J2),)</f>
+        <v>0.75</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" ref="P2:P16" si="3">IF(N2,N2+O2,)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="5" t="str">
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="N3" s="5">
         <f t="shared" si="1"/>
-        <v>0.750</v>
-      </c>
-      <c r="N3" s="5" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="5">
         <f t="shared" si="2"/>
-        <v>0.750</v>
-      </c>
-      <c r="O3" s="5" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="P3" s="5">
         <f t="shared" si="3"/>
-        <v>0.750</v>
-      </c>
-      <c r="P3" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>1.500</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4"/>
-      <c r="M4" s="5" t="str">
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
         <f t="shared" si="1"/>
-        <v>1.000</v>
-      </c>
-      <c r="N4" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" si="2"/>
-        <v>1.000</v>
-      </c>
-      <c r="O4" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
         <f t="shared" si="3"/>
-        <v>1.000</v>
-      </c>
-      <c r="P4" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>2.000</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="5" t="str">
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="N5" s="5">
         <f t="shared" si="1"/>
-        <v>0.750</v>
-      </c>
-      <c r="N5" s="5" t="str">
+        <v>2.25</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="2"/>
-        <v>2.250</v>
-      </c>
-      <c r="O5" s="5" t="str">
+        <v>0.75</v>
+      </c>
+      <c r="P5" s="5">
         <f t="shared" si="3"/>
-        <v>0.750</v>
-      </c>
-      <c r="P5" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>3.000</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="5" t="str">
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="5">
         <f t="shared" si="1"/>
-        <v>0.500</v>
-      </c>
-      <c r="N6" s="5" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="2"/>
-        <v>0.500</v>
-      </c>
-      <c r="O6" s="5" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="3"/>
-        <v>0.500</v>
-      </c>
-      <c r="P6" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>1.000</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="5" t="str">
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N7" s="5">
         <f t="shared" si="1"/>
-        <v>0.333</v>
-      </c>
-      <c r="N7" s="5" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="2"/>
-        <v>0.333</v>
-      </c>
-      <c r="O7" s="5" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P7" s="5">
         <f t="shared" si="3"/>
-        <v>0.333</v>
-      </c>
-      <c r="P7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="5" t="str">
+      <c r="M8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N8" s="5">
         <f t="shared" si="1"/>
-        <v>0.667</v>
-      </c>
-      <c r="N8" s="5" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="2"/>
-        <v>0.667</v>
-      </c>
-      <c r="O8" s="5" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P8" s="5">
         <f t="shared" si="3"/>
-        <v>0.667</v>
-      </c>
-      <c r="P8" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C9" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="5" t="str">
+      <c r="M9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N9" s="5">
         <f t="shared" si="1"/>
-        <v>0.333</v>
-      </c>
-      <c r="N9" s="5" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="2"/>
-        <v>0.333</v>
-      </c>
-      <c r="O9" s="5" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P9" s="5">
         <f t="shared" si="3"/>
-        <v>0.333</v>
-      </c>
-      <c r="P9" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.667</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="5" t="str">
+      <c r="M10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N10" s="5">
         <f t="shared" si="1"/>
-        <v>0.667</v>
-      </c>
-      <c r="N10" s="5" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="2"/>
-        <v>0.667</v>
-      </c>
-      <c r="O10" s="5" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P10" s="5">
         <f t="shared" si="3"/>
-        <v>0.667</v>
-      </c>
-      <c r="P10" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>1.333</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="5" t="str">
+      <c r="M11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N11" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O11" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P11" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="5" t="str">
+      <c r="M12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N12" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O12" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P12" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="5" t="str">
+      <c r="M13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N13" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O13" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P13" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L14" s="4"/>
-      <c r="M14" s="5" t="str">
+      <c r="M14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N14" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O14" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P14" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="5" t="str">
+      <c r="M15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
         <f t="shared" si="1"/>
-        <v>1.000</v>
-      </c>
-      <c r="N15" s="5" t="str">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="O15" s="5">
         <f t="shared" si="2"/>
-        <v>1.667</v>
-      </c>
-      <c r="O15" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="P15" s="5">
         <f t="shared" si="3"/>
-        <v>1.000</v>
-      </c>
-      <c r="P15" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>2.667</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>2.666666666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="5" t="str">
+      <c r="M16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N16" s="5">
         <f t="shared" si="1"/>
-        <v>0.333</v>
-      </c>
-      <c r="N16" s="5" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O16" s="5">
         <f t="shared" si="2"/>
-        <v>0.333</v>
-      </c>
-      <c r="O16" s="5" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="3"/>
-        <v>0.500</v>
-      </c>
-      <c r="P16" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.833</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1065,72 +1384,77 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="str">
-        <f t="shared" ref="B18:K18" si="5">sum(B2:B16)</f>
+      <c r="B18" s="1">
+        <f t="shared" ref="B18:K18" si="4">SUM(B2:B16)</f>
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="C18" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="E18" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="6" t="str">
+      <c r="M18" s="6">
         <f>D18/C18</f>
-        <v>0.639</v>
-      </c>
-      <c r="N18" s="6" t="str">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="N18" s="6">
         <f>((D18-G18-H18-I18)+(2*G18)+(3*H18)+(4*I18))/C18</f>
-        <v>0.917</v>
-      </c>
-      <c r="O18" s="6" t="str">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="O18" s="6">
         <f>IF(B18,(D18+J18)/(C18+J18),)</f>
-        <v>0.667</v>
-      </c>
-      <c r="P18" s="6" t="str">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P18" s="6">
         <f>IF(N18,N18+O18,)</f>
-        <v>1.583</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="M22" s="7"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -271,20 +271,25 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.0</v>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:C2" si="1">4+4</f>
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f t="shared" ref="D2:E2" si="2">3+3</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>2+4</f>
+        <v>6</v>
       </c>
       <c r="G2" s="3">
         <v>2.0</v>
@@ -292,8 +297,9 @@
       <c r="H2" s="3">
         <v>0.0</v>
       </c>
-      <c r="I2" s="3">
-        <v>0.0</v>
+      <c r="I2" s="3" t="str">
+        <f>0+2</f>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
         <v>0.0</v>
@@ -303,43 +309,47 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="5" t="str">
-        <f t="shared" ref="M2:M16" si="1">IF(C2,D2/C2,)</f>
+        <f t="shared" ref="M2:M16" si="4">IF(C2,D2/C2,)</f>
         <v>0.750</v>
       </c>
       <c r="N2" s="5" t="str">
-        <f t="shared" ref="N2:N16" si="2">IF(C2,((D2-G2-H2-I2)+(2*G2)+(3*H2)+(4*I2))/C2,)</f>
-        <v>1.250</v>
+        <f t="shared" ref="N2:N16" si="5">IF(C2,((D2-G2-H2-I2)+(2*G2)+(3*H2)+(4*I2))/C2,)</f>
+        <v>1.750</v>
       </c>
       <c r="O2" s="5" t="str">
-        <f t="shared" ref="O2:O17" si="3">IF(B2,(D2+J2)/(C2+J2),)</f>
+        <f t="shared" ref="O2:O17" si="6">IF(B2,(D2+J2)/(C2+J2),)</f>
         <v>0.750</v>
       </c>
       <c r="P2" s="5" t="str">
-        <f t="shared" ref="P2:P17" si="4">IF(N2,N2+O2,)</f>
-        <v>2.000</v>
+        <f t="shared" ref="P2:P17" si="7">IF(N2,N2+O2,)</f>
+        <v>2.500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3.0</v>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:C3" si="3">4+3</f>
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f>3+3</f>
+        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>2.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>3.0</v>
+      <c r="F3" s="3" t="str">
+        <f>3+1</f>
+        <v>4</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H3" s="3">
         <v>0.0</v>
@@ -355,49 +365,53 @@
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0.750</v>
+        <f t="shared" si="4"/>
+        <v>0.857</v>
       </c>
       <c r="N3" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0.750</v>
+        <f t="shared" si="5"/>
+        <v>1.000</v>
       </c>
       <c r="O3" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0.750</v>
+        <f t="shared" si="6"/>
+        <v>0.857</v>
       </c>
       <c r="P3" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>1.500</v>
+        <f t="shared" si="7"/>
+        <v>1.857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3" t="str">
+        <f>4+4</f>
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f t="shared" ref="C4:D4" si="8">4+2</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>3+3</f>
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G4" s="3">
         <v>2.0</v>
       </c>
-      <c r="D4" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.0</v>
-      </c>
       <c r="H4" s="3">
         <v>0.0</v>
       </c>
       <c r="I4" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="3">
         <v>2.0</v>
@@ -407,20 +421,20 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.000</v>
       </c>
       <c r="N4" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>1.833</v>
+      </c>
+      <c r="O4" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>1.000</v>
       </c>
-      <c r="O4" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>1.000</v>
-      </c>
       <c r="P4" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>2.000</v>
+        <f t="shared" si="7"/>
+        <v>2.833</v>
       </c>
     </row>
     <row r="5">
@@ -459,19 +473,19 @@
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.750</v>
       </c>
       <c r="N5" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>2.250</v>
       </c>
       <c r="O5" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.750</v>
       </c>
       <c r="P5" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.000</v>
       </c>
     </row>
@@ -479,20 +493,25 @@
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1.0</v>
+      <c r="B6" s="3" t="str">
+        <f t="shared" ref="B6:C6" si="9">4+4</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" ref="F6:F7" si="11">1+1</f>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
         <v>0.0</v>
@@ -511,19 +530,19 @@
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.500</v>
       </c>
       <c r="N6" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.500</v>
       </c>
       <c r="O6" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.500</v>
       </c>
       <c r="P6" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.000</v>
       </c>
     </row>
@@ -531,23 +550,27 @@
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3" t="str">
+        <f t="shared" ref="B7:C7" si="10">3+3</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
         <v>1.0</v>
       </c>
-      <c r="E7" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.0</v>
       </c>
       <c r="H7" s="3">
         <v>0.0</v>
@@ -563,40 +586,45 @@
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.333</v>
       </c>
       <c r="N7" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>0.500</v>
+      </c>
+      <c r="O7" s="5" t="str">
+        <f t="shared" si="6"/>
         <v>0.333</v>
       </c>
-      <c r="O7" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0.333</v>
-      </c>
       <c r="P7" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.667</v>
+        <f t="shared" si="7"/>
+        <v>0.833</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.0</v>
+      <c r="B8" s="3" t="str">
+        <f t="shared" ref="B8:C8" si="12">3+3</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>2+2</f>
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f>2+1</f>
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>0+2</f>
+        <v>2</v>
       </c>
       <c r="G8" s="3">
         <v>0.0</v>
@@ -615,19 +643,19 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.667</v>
       </c>
       <c r="N8" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.667</v>
       </c>
       <c r="O8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.667</v>
       </c>
       <c r="P8" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1.333</v>
       </c>
     </row>
@@ -635,17 +663,21 @@
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.0</v>
+      <c r="B9" s="3" t="str">
+        <f t="shared" ref="B9:C9" si="13">3+3</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>1+2</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f>1+1</f>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>0.0</v>
@@ -667,46 +699,50 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>0.333</v>
+        <f t="shared" si="4"/>
+        <v>0.500</v>
       </c>
       <c r="N9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0.333</v>
+        <f t="shared" si="5"/>
+        <v>0.500</v>
       </c>
       <c r="O9" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0.333</v>
+        <f t="shared" si="6"/>
+        <v>0.500</v>
       </c>
       <c r="P9" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>0.667</v>
+        <f t="shared" si="7"/>
+        <v>1.000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3.0</v>
+      <c r="B10" s="3" t="str">
+        <f t="shared" ref="B10:C10" si="14">3+3</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>2.0</v>
       </c>
-      <c r="E10" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2.0</v>
+      <c r="E10" s="3" t="str">
+        <f t="shared" ref="E10:F10" si="15">2+1</f>
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
         <v>0.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
@@ -719,46 +755,47 @@
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>0.333</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f t="shared" si="5"/>
         <v>0.667</v>
       </c>
-      <c r="N10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>0.667</v>
-      </c>
       <c r="O10" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>0.667</v>
+        <f t="shared" si="6"/>
+        <v>0.333</v>
       </c>
       <c r="P10" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>1.333</v>
+        <f t="shared" si="7"/>
+        <v>1.000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.0</v>
+      <c r="B11" s="3" t="str">
+        <f>4</f>
+        <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D11" s="3">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="E11" s="3">
         <v>0.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="3">
         <v>0.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
@@ -771,20 +808,20 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0.750</v>
       </c>
       <c r="N11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>1.250</v>
       </c>
       <c r="O11" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0.750</v>
       </c>
       <c r="P11" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>2.000</v>
       </c>
     </row>
     <row r="12">
@@ -823,19 +860,19 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N12" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O12" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P12" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -875,19 +912,19 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O13" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P13" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -896,16 +933,16 @@
         <v>27</v>
       </c>
       <c r="B14" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C14" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D14" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="F14" s="3">
         <v>0.0</v>
@@ -927,20 +964,20 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>0.500</v>
       </c>
       <c r="N14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>0.500</v>
       </c>
       <c r="O14" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0.500</v>
       </c>
       <c r="P14" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1.000</v>
       </c>
     </row>
     <row r="15">
@@ -979,19 +1016,19 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.000</v>
       </c>
       <c r="N15" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.667</v>
       </c>
       <c r="O15" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.000</v>
       </c>
       <c r="P15" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.667</v>
       </c>
     </row>
@@ -1031,19 +1068,19 @@
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.333</v>
       </c>
       <c r="N16" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.333</v>
       </c>
       <c r="O16" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.500</v>
       </c>
       <c r="P16" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.833</v>
       </c>
     </row>
@@ -1052,61 +1089,61 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" ref="B17:K17" si="5">sum(B2:B16)</f>
-        <v>39</v>
+        <f t="shared" ref="B17:K17" si="16">sum(B2:B16)</f>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>36</v>
+        <f t="shared" si="16"/>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="16"/>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>32</v>
       </c>
       <c r="F17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>32</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="16"/>
+        <v>8</v>
       </c>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="I17" s="1" t="str">
-        <f t="shared" si="5"/>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="3"/>
       <c r="M17" s="6" t="str">
         <f>D17/C17</f>
-        <v>0.639</v>
+        <v>0.634</v>
       </c>
       <c r="N17" s="6" t="str">
         <f>((D17-G17-H17-I17)+(2*G17)+(3*H17)+(4*I17))/C17</f>
-        <v>0.917</v>
+        <v>1.014</v>
       </c>
       <c r="O17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>0.667</v>
+        <f t="shared" si="6"/>
+        <v>0.649</v>
       </c>
       <c r="P17" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>1.583</v>
+        <f t="shared" si="7"/>
+        <v>1.663</v>
       </c>
     </row>
     <row r="21">
